--- a/documents/analyse_uml/usecase_textuel/use_case_sonder/Supprimersondage.xlsx
+++ b/documents/analyse_uml/usecase_textuel/use_case_sonder/Supprimersondage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_questionner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_sonder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{113B3933-C8C7-4647-92E0-E28FD2D9BB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CBCA2-4053-42A3-AAB0-10CD5B20AC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{8E28AD47-04AD-4003-B06F-51CDF6D924EB}"/>
   </bookViews>
@@ -211,7 +211,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : supprimerquestionner</t>
+      <t xml:space="preserve"> : supprimersondage</t>
     </r>
   </si>
   <si>
@@ -256,11 +256,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : supprimer un question questionnaire</t>
-    </r>
-  </si>
-  <si>
-    <t>2) Quideance supprime le questionnaire</t>
+      <t xml:space="preserve"> : supprimer un  sondage</t>
+    </r>
+  </si>
+  <si>
+    <t>2) Quideance supprime le sondage</t>
   </si>
 </sst>
 </file>
@@ -386,10 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -399,6 +395,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="105.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -745,16 +745,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
